--- a/crawling/data/yogiyo_서울대_new.xlsx
+++ b/crawling/data/yogiyo_서울대_new.xlsx
@@ -393,64 +393,64 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/224546/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/351977/</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191029_379478_한성마라탕-관악점_대표사진_200x200.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20190820_351977_야마스시_대표사진_200x200.jpg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>한성마라탕-관악점</t>
+          <t>야마스시</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>★ 4.8</t>
+          <t>★ 4.7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>15,000원 이상 배달</t>
+          <t>10,000원 이상 배달</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>40~50분</t>
+          <t>55~65분</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>189</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/262121/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/265677/</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/franchise_logos/리얼안심찹쌀탕수육_20180123_Franchise이미지약정서_crop_200x200.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/아구찜01_20131128_FoodAD_crop_200x200_sY9O5Ub.jpg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>리얼안심&amp;찹쌀탕수육-봉천점</t>
+          <t>배영만당진아구/동태찜탕</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>★ 4.6</t>
+          <t>★ 4.7</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10,000원 이상 배달</t>
+          <t>20,000원 이상 배달</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -460,182 +460,182 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>189</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/283062/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/254169/</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20200116_283062_공룡도배부른안심탕수육_대표사진_300x300.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/삼겹살03_20131203_foodon_crop_200x200_SwtDgkP.jpg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>공룡도배부른안심탕수육</t>
+          <t>고삼겹살배달돼지-신림점</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>★ 4.8</t>
+          <t>★ 4.6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>14,000원 이상 배달</t>
+          <t>13,000원 이상 배달</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>50~60분</t>
+          <t>40~50분</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>182</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/61305/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/268569/</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/franchise_logos/취향저격안심탕수육_20181015_Franchise이미지약정서_crop_200x200.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/제육정식01_20131128_FoodAD_crop_200x200_GaVuOZ4.jpg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>취향저격안심탕수육-신림점</t>
+          <t>신웰빙고향쌈밥</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>★ 4.2</t>
+          <t>★ 4.4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>14,000원 이상 배달</t>
+          <t>16,000원 이상 배달</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>50~60분</t>
+          <t>55~65분</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>178</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/363163/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/350832/</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/restaurant_logos/짬뽕01_20131128_FoodAD_crop_200x200_DA8nJFV.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/김치찌개03_20131128_FoodAD_crop_200x200_iBFk5K4.jpg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>쓰촨마라탕</t>
+          <t>휘가로</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>★ 4.7</t>
+          <t>★ 4.9</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8,000원 이상 배달</t>
+          <t>16,000원 이상 배달</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>50~60분</t>
+          <t>45~55분</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>164</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/244982/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/312518/</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20191203_DHK촬영합성_차돌박이짬뽕-탕수육_Top01_300x300_fKvYUWK.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/탕수육02_20131128_FoodAD_crop_200x200_wk4n2z6.jpg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>짬뽕선생</t>
+          <t>1인안심탕수육</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>★ 3.5</t>
+          <t>★ 4.8</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10,000원 이상 배달</t>
+          <t>9,000원 이상 배달</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>55~65분</t>
+          <t>40~50분</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>151</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/312518/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/25917/</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/restaurant_logos/탕수육02_20131128_FoodAD_crop_200x200_wk4n2z6.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/신오빠닭발-본점_20171101_가맹로고이미지약정서_crop_200x200.jpg</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1인안심탕수육</t>
+          <t>신오빠닭발-본점</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>★ 4.8</t>
+          <t>★ 4.4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>9,000원 이상 배달</t>
+          <t>17,000원 이상 배달</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -645,34 +645,34 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>145</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/323833/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/366661/</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/restaurant_logos/탕수육08_20131205_foodon_crop_200x200_jJKchAQ.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20190926_366661_7500냥혼밥도락_대표사진_200x200.jpg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>탕수육쌀롱-본점</t>
+          <t>혼자도즐기는고기도락</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>★ 4.8</t>
+          <t>★ 4.4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>16,900원 이상 배달</t>
+          <t>7,500원 이상 배달</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -682,61 +682,61 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>143</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/281909/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/389958/</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/restaurant_logos/충칭마라훠궈_20180703_가맹로고이미지약정서_crop_200x200.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20200102_389958_소림마라탕-신림점_대표사진_300x300.jpg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>충칭마라훠궈</t>
+          <t>소림마라탕-신림점</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>★ 3.2</t>
+          <t>★ 4.5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5,000원 이상 배달</t>
+          <t>15,000원 이상 배달</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>20~30분</t>
+          <t>45~55분</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/340618/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/340530/</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/restaurant_logos/짜장면01_20131128_FoodAD_crop_200x200_o2jgoHm.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/후라이드치킨01_20131128_FoodAD_crop_200x200_injNcD8.jpg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>함흥냉면전문점-신림점</t>
+          <t>치킨중독</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -746,118 +746,118 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10,000원 이상 배달</t>
+          <t>13,000원 이상 배달</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>40~50분</t>
+          <t>45~55분</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>138</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/378603/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/289031/</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191024_378603_마라탕n마라샹궈-서울대입구역점_대표사진_200x200.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/보쌈선생_20180920_가맹로고이미지약정서_crop_200x200.jpg</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>마라탕&amp;마라샹궈-서울대입구역점</t>
+          <t>보쌈선생&amp;족발</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>★ 4.6</t>
+          <t>★ 4.8</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>15,000원 이상 배달</t>
+          <t>24,000원 이상 배달</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>45~55분</t>
+          <t>50~60분</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>134</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/378581/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/294039/</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191023_378581_마라공방-서울대입구역점_대표사진_200x200_ji1WG3Q.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/양념곱창01_20131128_FoodAD_crop_200x200_u8RPJMk.jpg</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>마라공방-서울대입구역점</t>
+          <t>야한곱창-관악점</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>★ 4.5</t>
+          <t>★ 4.6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>15,000원 이상 배달</t>
+          <t>18,000원 이상 배달</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>45~55분</t>
+          <t>40~50분</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>134</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/379902/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/410566/</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/franchise_logos/타이거마라_20191002_Franchise_crop_200x200.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20200115_410566_치킨베이-신림점_대표사진_300x300.jpg</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>타이거마라-난곡점</t>
+          <t>치킨베이-신림점</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>★ 4.5</t>
+          <t>★ 4.9</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>9,000원 이상 배달</t>
+          <t>10,000원 이상 배달</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -867,34 +867,34 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>124</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/285030/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/318206/</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/restaurant_logos/브라더양꼬치-신림점_20180725_가맹로고이미지약정서_crop_200x200.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/김치찌개04_20131128_FoodAD_crop_200x200_fLsNeTK.jpg</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>브라더양꼬치&amp;마라탕-신림점</t>
+          <t>짱구한식분식-신림점</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>★ 4.3</t>
+          <t>★ 4.4</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>20,000원 이상 배달</t>
+          <t>14,000원 이상 배달</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -904,98 +904,98 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>123</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/410704/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/300639/</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20200115_410704_미래식부_대표사진_300x300.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/franchise_logos/THE건강한리얼떡볶이__20171114_Franchise이미지약정서_crop_200x200.jpg</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>미래식부</t>
+          <t>THE건강한리얼떡볶이-봉천점</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>★ 4.8</t>
+          <t>★ 4.7</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12,000원 이상 배달</t>
+          <t>13,000원 이상 배달</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>50~60분</t>
+          <t>40~50분</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>121</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/379487/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/260201/</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191029_379487_한성마라탕n마라샹궈전문점_대표사진_200x200.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/족발06_20131128_FoodAD_crop_200x200_Z8fnS1B.jpg</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>한성마라탕&amp;마라샹궈전문점</t>
+          <t>낭만직화숯불바베큐족발보쌈</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>★ 4.8</t>
+          <t>★ 3.8</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>15,000원 이상 배달</t>
+          <t>19,000원 이상 배달</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>40~50분</t>
+          <t>55~65분</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>121</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/226173/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/244930/</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/restaurant_logos/짬뽕02_20131205_foodon_crop_200x200_CZ8sPsO.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/매운족발02_20141022_foodon_crop_200x200_2EpFiW5.jpg</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>동희반점-신림점</t>
+          <t>1인족발보쌈</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1005,77 +1005,77 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5,000원 이상 배달</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+          <t>8,000원 이상 배달</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>45~55분</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>113</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/278748/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/267741/</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/franchise_logos/찰스탕수육신푸드_20160621_Franchise이미지약정서_crop_200x200.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/해물감자탕01_20131128_FoodAD_crop_200x200_Eimc6RF.jpg</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>찰스탕수육-사당점</t>
+          <t>마시뜨레</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>★ 3.5</t>
+          <t>★ 4.1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>17,000원 이상 배달</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>50~60분</t>
-        </is>
-      </c>
+          <t>20,000원 이상 배달</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>113</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/374545/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/319281/</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_탕수육_Side01_300x300_zBUJJV3.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/후라이드치킨06_20131128_FoodAD_crop_200x200_LQxa3qf.jpg</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>에찌에찌탕수육-신림점</t>
+          <t>우리동네치킨-신림점</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>★ 4.1</t>
+          <t>★ 4.8</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>16,000원 이상 배달</t>
+          <t>14,000원 이상 배달</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1085,24 +1085,24 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>112</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/367676/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/261053/</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190816_DHK촬영_마라탕_Top01_300x300_rMR4zoN.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/왕돈까스02_20131128_FoodAD_crop_200x200_mZvut58.jpg</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>황비홍마라탕-신림점</t>
+          <t>민돈까스</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1112,44 +1112,40 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12,000원 이상 배달</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>50~60분</t>
-        </is>
-      </c>
+          <t>14,000원 이상 배달</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>110</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/377648/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/299863/</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190816_DHK촬영_마라탕_Top01_300x300_VlNVO24.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/닭치GO-본점_20181115_가맹로고이미지약정서_crop_200x200.jpg</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>성민양꼬치&amp;마라탕</t>
+          <t>닭치GO-본점</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>★ 4.5</t>
+          <t>★ 4.7</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10,000원 이상 배달</t>
+          <t>16,000원 이상 배달</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1159,145 +1155,145 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>107</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/378591/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/245318/</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191024_378591_꿔바로우맛집-서울대입구역점_대표사진_200x200.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/양념곱창01_20131128_FoodAD_crop_200x200_vPQM3Di.jpg</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>꿔바로우맛집-서울대입구역점</t>
+          <t>곱창의정석</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>★ 4.2</t>
+          <t>★ 4.3</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>15,000원 이상 배달</t>
+          <t>11,000원 이상 배달</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>45~55분</t>
+          <t>50~60분</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>101</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/410707/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/399682/</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20200115_410707_미래중식_대표사진_300x300.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191206_399682_매운국물떡볶이밀방떡-봉천점_대표사진_200x200.jpg</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>미래중식</t>
+          <t>매운국물떡볶이밀방떡-봉천점</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>★ 4.6</t>
+          <t>★ 4.8</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12,000원 이상 배달</t>
+          <t>14,000원 이상 배달</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>50~60분</t>
+          <t>45~55분</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>93</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/378613/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/296306/</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191024_378613_마라샹궈맛집-서울대입구역점_대표사진_200x200.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/찜닭02_20131128_FoodAD_crop_200x200_WcYGGRs.jpg</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>마라샹궈맛집-서울대입구역점</t>
+          <t>닭들의전쟁</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>★ 4.0</t>
+          <t>★ 4.5</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>15,000원 이상 배달</t>
+          <t>20,000원 이상 배달</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>45~55분</t>
+          <t>50~60분</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>93</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/261146/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/240042/</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/franchise_logos/혜화동짬뽕극장_20180910_Franchise이미지약정서_crop_200x200.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/족발05_20131128_FoodAD_crop_200x200_wixKYA4.jpg</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>혜화동짬뽕극장-서울가산점</t>
+          <t>손가네한방족발-신림점</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>★ 4.3</t>
+          <t>★ 4.7</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>15,500원 이상 배달</t>
+          <t>26,000원 이상 배달</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1307,29 +1303,29 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>91</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/336768/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/325110/</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/franchise_logos/쉐프의생안심탕수육_20190531_Franchise_crop_200x200.PNG</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_마라탕_Top01_300x300_qSHBO5q.jpg</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>쉐프의생안심탕수육-신림점</t>
+          <t>사천마라탕-본점</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>★ 3.3</t>
+          <t>★ 4.6</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1344,174 +1340,182 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>88</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/374925/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/354242/</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191114_374926_수해복마라샹궈_대표사진_200x200.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/김치찌개02_20131128_FoodAD_crop_200x200_Ib32nzX.jpg</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>수해복마라탕</t>
+          <t>혼밥대왕-봉천점</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>★ 3.5</t>
+          <t>★ 4.5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10,000원 이상 배달</t>
+          <t>8,000원 이상 배달</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>15~25분</t>
+          <t>50~60분</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>87</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/415508/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/247175/</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_마라탕_Side02_300x300_LtHD7A5.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20200121_247175_꽂힘-본점_대표사진_300x300.jpg</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>마라제작소</t>
+          <t>꽂힘-본점</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>★ 5.0</t>
+          <t>★ 4.5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>13,000원 이상 배달</t>
+          <t>15,000원 이상 배달</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>35~45분</t>
+          <t>50~60분</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>87</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/294030/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/351407/</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/restaurant_logos/짜장면01_20131128_FoodAD_crop_200x200_HysJqGv.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/회09_20131205_foodon_crop_200x200_K8dqzaQ.jpg</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>선짜장</t>
+          <t>탐나종합어시장-신림역점</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>★ 2.5</t>
+          <t>★ 4.5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10,000원 이상 배달</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+          <t>20,000원 이상 배달</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>35~45분</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>86</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/305732/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/343292/</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/franchise_logos/혜화동짬뽕극장_20180910_Franchise이미지약정서_crop_200x200.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/김치찌개03_20131128_FoodAD_crop_200x200_J6Hu2qR.jpg</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>혜화동짬뽕극장-서울도깨비시장점</t>
+          <t>지니혼밥</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>★ 3.0</t>
+          <t>★ 4.5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>14,900원 이상 배달</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+          <t>6,000원 이상 배달</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>55~65분</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>84</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/415228/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/344783/</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/franchise_logos/브라더탕수_20190426_Franchise_crop_200x200.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/꼬막찜01_20140529_요기요자체제작_crop_200x200_ZQNXP5j.jpg</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>브라더탕수-신림점</t>
+          <t>꼬꼬방벌교꼬막불고기-관악점</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>★ 5.0</t>
+          <t>★ 4.8</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>18,000원 이상 배달</t>
+          <t>14,000원 이상 배달</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1521,162 +1525,194 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>76</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/378610/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/343294/</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191024_378610_마라탕맛집-서울대입구역점_대표사진_200x200.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/김치찌개03_20131128_FoodAD_crop_200x200_J6Hu2qR.jpg</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>마라탕맛집-서울대입구역점</t>
+          <t>김치찜맛있는집</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>★ 3.5</t>
+          <t>★ 4.6</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>15,000원 이상 배달</t>
+          <t>6,000원 이상 배달</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>45~55분</t>
+          <t>50~60분</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>75</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/374926/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/277490/</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191114_374926_수해복마라샹궈_대표사진_200x200_wQcFr20.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191126_391027_데이비드가네부대찌개-신림_대표사진_200x200.jpg</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>수해복마라샹궈</t>
+          <t>데이비드가네부대찌개-신림점</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>★ 4.0</t>
+          <t>★ 4.9</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10,000원 이상 배달</t>
+          <t>12,000원 이상 배달</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>15~25분</t>
+          <t>45~55분</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>70</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/387698/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/296304/</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_부대찌개_Side01_300x300_oLGVWq5.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/낙지볶음04_20131128_FoodAD_crop_200x200_LOQCxbz.jpg</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>수마라부대</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>불맛나는낙지세상</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>★ 4.0</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12,500원 이상 배달</t>
+          <t>20,000원 이상 배달</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>25~35분</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+          <t>50~60분</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/416327/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/381580/</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190807_DHK촬영합성_볶음밥-삼선짬뽕-탕수육_Top01_300x300_2O8BOO0.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191104_381580_테트리스찜닭-관악점_대표사진_200x200.jpg</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>해장각-봉천점</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>테트리스찜닭-관악점</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>★ 4.9</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>8,500원 이상 배달</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+          <t>19,000원 이상 배달</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>55~65분</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/mobile/#/416335/</t>
+          <t>https://www.yogiyo.co.kr/mobile/#/27447/</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190807_DHK촬영합성_볶음밥-삼선짬뽕-탕수육_Top01_300x300_8Koe60x.jpg</t>
+          <t>https://www.yogiyo.co.kr/media/restaurant_logos/양념바베큐치킨02_20120524_FoodAD_crop_200x200_232.jpg</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>해장각-상도점</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>굽고굽고</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>★ 4.5</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>8,500원 이상 배달</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+          <t>13,000원 이상 배달</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>50~60분</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
